--- a/biology/Botanique/A.Cunn/A.Cunn..xlsx
+++ b/biology/Botanique/A.Cunn/A.Cunn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan Cunningham est un botaniste et un explorateur britannique, né le 13 juillet 1791 à Wimbledon (Londres) et mort à Sydney le 27 juin 1839.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Allan Cunningham et fait ses études à Putney. Il est choisi par Sir Joseph Banks pour voyager et collecter des plantes pour les Jardins botaniques royaux de Kew. Il se trouve au Brésil entre 1814 et 1816 avant d’arriver en Australie le 20 décembre 1816 à Port Jackson. Parmi d’autres explorations, il se joint à John Oxley qui explore les rivières Lachlan et Macquarie et est le botaniste à bord de l’H.M.S. Mermaid de 1817 à 1820 sous les ordres du capitaine Philip Parker King. Il prend également part à une exploration de ce qui est aujourd’hui Canberra en 1824 et visite la Nouvelle-Zélande deux ans plus tard.
 En 1827, Cunningham explore le haut de la vallée Hunter et découvre les Darling Downs sur les pentes de la Cordillère australienne. En 1828, sur son chemin de retour à Brisbane, il découvre le Cunningham's Gap. En 1829, il explore la Brisbane.
